--- a/level 2/codeforces - phase 2-1.xlsx
+++ b/level 2/codeforces - phase 2-1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="problem solving level 2.1" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces level 2.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -645,378 +645,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -4395,72 +4024,72 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="66" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="65" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:N31">
-    <cfRule type="cellIs" dxfId="64" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N43">
-    <cfRule type="cellIs" dxfId="63" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:A1048576">
-    <cfRule type="cellIs" dxfId="58" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 A4:A9 A12:A27 A65:A97 M4:M97 B4:B97">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 M4 M7:M11">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A24 M17:M24">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A36 M28:M36">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A64 M38:M64">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
